--- a/Excel/Trilha Excel/Fórmulas/16_Função CORRESP - Introdução.xlsx
+++ b/Excel/Trilha Excel/Fórmulas/16_Função CORRESP - Introdução.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a2f4a81bc3d9dd/Documentos/GitHub/Hashtag_AnaliseDados/Excel/Trilha Excel/Fórmulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{8603CFD9-1D49-43EF-9850-1A60B0F826DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5DEA74E-48F6-43D3-B1DE-BBB488E4C84E}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{8603CFD9-1D49-43EF-9850-1A60B0F826DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2808709C-8749-409D-9BA8-66DB760D8AF8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1380" yWindow="4065" windowWidth="21600" windowHeight="10995" activeTab="3" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="CORRESP" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -412,11 +412,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,6 +1436,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
@@ -4936,37 +4940,37 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <f>VLOOKUP($B16,$B$2:$H$13,MATCH(C$15,$B$2:$H$2,0),0)</f>
         <v>136909</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <f>VLOOKUP($B16,$B$2:$H$13,MATCH(D$15,$B$2:$H$2,0),0)</f>
         <v>827119</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <f t="shared" ref="E20:H20" si="1">VLOOKUP($B16,$B$2:$H$13,MATCH(E$15,$B$2:$H$2,0),0)</f>
         <v>804873</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <f t="shared" si="1"/>
         <v>701521</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <f t="shared" si="1"/>
         <v>533749</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <f t="shared" si="1"/>
         <v>570184</v>
       </c>
@@ -4996,27 +5000,27 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <f>VLOOKUP($B17,$B$2:$H$13,MATCH(C$15,$B$2:$H$2,0),0)</f>
         <v>339849</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <f t="shared" ref="D21:H21" si="3">VLOOKUP($B17,$B$2:$H$13,MATCH(D$15,$B$2:$H$2,0),0)</f>
         <v>142492</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <f t="shared" si="3"/>
         <v>488286</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <f t="shared" si="3"/>
         <v>520411</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <f t="shared" si="3"/>
         <v>349757</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <f t="shared" si="3"/>
         <v>726040</v>
       </c>
@@ -5056,23 +5060,23 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="23" cm="1">
+      <c r="C24" s="22" cm="1">
         <f t="array" ref="C24:H24">_xlfn.XLOOKUP($B16,$B$3:$B$13,$C$3:$H$13,0,0,1)</f>
         <v>136909</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>827119</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>804873</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>701521</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>533749</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>570184</v>
       </c>
       <c r="J24" s="1" cm="1">
@@ -5096,23 +5100,23 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="23" cm="1">
+      <c r="C25" s="22" cm="1">
         <f t="array" ref="C25:H25">_xlfn.XLOOKUP($B17,$B$3:$B$13,$C$3:$H$13,0,0,1)</f>
         <v>339849</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>142492</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>488286</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>520411</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>349757</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>726040</v>
       </c>
       <c r="J25" s="1" cm="1">
@@ -5154,7 +5158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14320F23-E21A-4F4C-B9C0-5DAADE102FA6}">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6550,8 +6554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58476F61-E96E-445D-B26A-359D96FCABAF}">
   <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
